--- a/Carriers routes/DistancesBetweenCitiesOfKazakhstan - Orig.xlsx
+++ b/Carriers routes/DistancesBetweenCitiesOfKazakhstan - Orig.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DistancesBetweenCitiesOfKazakhs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
   <si>
     <t>Актау</t>
   </si>
@@ -82,6 +83,15 @@
   </si>
   <si>
     <t>Областные центры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алматы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шымкент </t>
+  </si>
+  <si>
+    <t>Костонай</t>
   </si>
 </sst>
 </file>
@@ -224,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +412,36 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -565,8 +605,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,11 +936,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1">
@@ -1042,7 +1091,7 @@
       <c r="H3">
         <v>2031</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>733</v>
       </c>
       <c r="J3">
@@ -1054,13 +1103,13 @@
       <c r="L3">
         <v>276</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>694</v>
       </c>
       <c r="N3">
         <v>426</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="5">
         <v>476</v>
       </c>
       <c r="P3">
@@ -1172,7 +1221,7 @@
       <c r="H5">
         <v>595</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>1489</v>
       </c>
       <c r="J5">
@@ -1184,7 +1233,7 @@
       <c r="L5">
         <v>1201</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>760</v>
       </c>
       <c r="N5">
@@ -1212,7 +1261,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1240,7 +1289,7 @@
       <c r="I6">
         <v>1309</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>1013</v>
       </c>
       <c r="K6">
@@ -1249,7 +1298,7 @@
       <c r="L6">
         <v>1523</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>1937</v>
       </c>
       <c r="N6">
@@ -1258,19 +1307,19 @@
       <c r="O6">
         <v>1723</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>1116</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>249</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>498</v>
       </c>
       <c r="S6">
         <v>2680</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="6">
         <v>1068</v>
       </c>
       <c r="U6">
@@ -1367,7 +1416,7 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>2085</v>
       </c>
       <c r="J8">
@@ -1435,10 +1484,10 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>507</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>419</v>
       </c>
       <c r="L9">
@@ -1497,7 +1546,7 @@
       <c r="H10">
         <v>2242</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>507</v>
       </c>
       <c r="J10">
@@ -1509,7 +1558,7 @@
       <c r="L10">
         <v>495</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>909</v>
       </c>
       <c r="N10">
@@ -1530,7 +1579,7 @@
       <c r="S10">
         <v>2137</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="6">
         <v>923</v>
       </c>
       <c r="U10">
@@ -1710,7 +1759,7 @@
       <c r="N13">
         <v>1141</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>439</v>
       </c>
       <c r="P13">
@@ -1775,10 +1824,10 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="4">
         <v>915</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="4">
         <v>315</v>
       </c>
       <c r="Q14">
@@ -2218,7 +2267,7 @@
       <c r="J21">
         <v>1283</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>441</v>
       </c>
       <c r="L21">
@@ -2239,7 +2288,7 @@
       <c r="Q21">
         <v>937</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>167</v>
       </c>
       <c r="S21">
@@ -2250,6 +2299,205 @@
       </c>
       <c r="U21">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Carriers routes/DistancesBetweenCitiesOfKazakhstan - Orig.xlsx
+++ b/Carriers routes/DistancesBetweenCitiesOfKazakhstan - Orig.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
   <si>
     <t>Актау</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Шымкент </t>
-  </si>
-  <si>
-    <t>Костонай</t>
   </si>
 </sst>
 </file>
@@ -2310,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,7 +2451,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Carriers routes/DistancesBetweenCitiesOfKazakhstan - Orig.xlsx
+++ b/Carriers routes/DistancesBetweenCitiesOfKazakhstan - Orig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="DistancesBetweenCitiesOfKazakhs" sheetId="1" r:id="rId1"/>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,61 +944,61 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>17</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2307,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Carriers routes/DistancesBetweenCitiesOfKazakhstan - Orig.xlsx
+++ b/Carriers routes/DistancesBetweenCitiesOfKazakhstan - Orig.xlsx
@@ -602,7 +602,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -610,6 +610,9 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -933,12 +936,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1064,7 +1066,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -1129,7 +1131,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1194,7 +1196,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1259,7 +1261,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -1324,7 +1326,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1389,7 +1391,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -1454,7 +1456,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1519,7 +1521,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -1584,7 +1586,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1649,7 +1651,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -1714,7 +1716,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -1779,7 +1781,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
       <c r="B14" t="s">
@@ -1844,7 +1846,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -1909,7 +1911,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
       <c r="B16" t="s">
@@ -1974,7 +1976,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -2039,7 +2041,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
       <c r="B18" t="s">
@@ -2104,7 +2106,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -2169,7 +2171,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
       <c r="B20" t="s">
@@ -2234,7 +2236,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
       <c r="B21" t="s">
